--- a/Analysis/Comp_all_lscape.xlsx
+++ b/Analysis/Comp_all_lscape.xlsx
@@ -568,6 +568,11 @@
       <c r="T2">
         <v>8.968609865470855</v>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
           <t>N</t>
@@ -659,6 +664,11 @@
       <c r="T3">
         <v>6.9506726457399</v>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
           <t>N</t>
@@ -750,6 +760,11 @@
       <c r="T4">
         <v>4.708520179372212</v>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
           <t>N</t>
@@ -841,6 +856,11 @@
       <c r="T5">
         <v>33.4012219959267</v>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
           <t>N</t>
@@ -932,6 +952,11 @@
       <c r="T6">
         <v>4.444444444444442</v>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
           <t>N</t>
@@ -1023,6 +1048,11 @@
       <c r="T7">
         <v>3.111111111111108</v>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
           <t>N</t>
@@ -1114,6 +1144,11 @@
       <c r="T8">
         <v>20.67311727286859</v>
       </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
           <t>N</t>
@@ -1205,6 +1240,11 @@
       <c r="T9">
         <v>22.91188363632956</v>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
           <t>N</t>
@@ -1296,6 +1336,11 @@
       <c r="T10">
         <v>8.922902096189427</v>
       </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr">
         <is>
           <t>N</t>
@@ -1387,6 +1432,11 @@
       <c r="T11">
         <v>13.0687395728505</v>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
           <t>N</t>
@@ -1478,6 +1528,11 @@
       <c r="T12">
         <v>13.25456682304882</v>
       </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V12" t="inlineStr">
         <is>
           <t>N</t>
@@ -1569,6 +1624,11 @@
       <c r="T13">
         <v>18.61860323819894</v>
       </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V13" t="inlineStr">
         <is>
           <t>N</t>
@@ -1660,6 +1720,11 @@
       <c r="T14">
         <v>25.67931609625525</v>
       </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr">
         <is>
           <t>N</t>
@@ -1751,6 +1816,11 @@
       <c r="T15">
         <v>4.199642841956929</v>
       </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr">
         <is>
           <t>N</t>
@@ -1842,6 +1912,11 @@
       <c r="T16">
         <v>2.75378527364306</v>
       </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V16" t="inlineStr">
         <is>
           <t>N</t>
@@ -1933,6 +2008,11 @@
       <c r="T17">
         <v>9.176038106104128</v>
       </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr">
         <is>
           <t>N</t>
@@ -2024,6 +2104,11 @@
       <c r="T18">
         <v>7.290739197693234</v>
       </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V18" t="inlineStr">
         <is>
           <t>N</t>
@@ -2115,6 +2200,11 @@
       <c r="T19">
         <v>11.78700023229038</v>
       </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V19" t="inlineStr">
         <is>
           <t>N</t>
@@ -2206,6 +2296,11 @@
       <c r="T20">
         <v>4.825443014366689</v>
       </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V20" t="inlineStr">
         <is>
           <t>N</t>
@@ -2297,6 +2392,11 @@
       <c r="T21">
         <v>8.637097529185445</v>
       </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr">
         <is>
           <t>N</t>
@@ -2388,6 +2488,11 @@
       <c r="T22">
         <v>11.28778354111215</v>
       </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V22" t="inlineStr">
         <is>
           <t>N</t>
@@ -2479,6 +2584,11 @@
       <c r="T23">
         <v>16.1158295754592</v>
       </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr">
         <is>
           <t>N</t>
@@ -2570,6 +2680,11 @@
       <c r="T24">
         <v>12.60713433224019</v>
       </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr">
         <is>
           <t>N</t>
@@ -2661,6 +2776,11 @@
       <c r="T25">
         <v>5.782561593081199</v>
       </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr">
         <is>
           <t>N</t>
@@ -2752,6 +2872,11 @@
       <c r="T26">
         <v>3.919783907609312</v>
       </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr">
         <is>
           <t>N</t>
@@ -2843,6 +2968,11 @@
       <c r="T27">
         <v>5.631738284139697</v>
       </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr">
         <is>
           <t>N</t>
@@ -2934,6 +3064,11 @@
       <c r="T28">
         <v>5.924660732715736</v>
       </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr">
         <is>
           <t>N</t>
@@ -3025,6 +3160,11 @@
       <c r="T29">
         <v>5.112639885745391</v>
       </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
           <t>N</t>
@@ -3116,6 +3256,11 @@
       <c r="T30">
         <v>73.79773735328968</v>
       </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr">
         <is>
           <t>N</t>
@@ -3207,6 +3352,11 @@
       <c r="T31">
         <v>49.99201562642202</v>
       </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr">
         <is>
           <t>N</t>
@@ -3298,6 +3448,11 @@
       <c r="T32">
         <v>49.1984915688597</v>
       </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
           <t>N</t>
@@ -3389,6 +3544,11 @@
       <c r="T33">
         <v>19.60000000000002</v>
       </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
           <t>N</t>
@@ -3480,6 +3640,11 @@
       <c r="T34">
         <v>19.20000000000005</v>
       </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr">
         <is>
           <t>N</t>
@@ -3571,6 +3736,11 @@
       <c r="T35">
         <v>18.40000000000003</v>
       </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr">
         <is>
           <t>N</t>
@@ -3662,6 +3832,11 @@
       <c r="T36">
         <v>20.70512084465777</v>
       </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr">
         <is>
           <t>N</t>
@@ -3753,6 +3928,11 @@
       <c r="T37">
         <v>20.70512084465777</v>
       </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr">
         <is>
           <t>N</t>
@@ -3844,6 +4024,11 @@
       <c r="T38">
         <v>17.74724643827819</v>
       </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr">
         <is>
           <t>N</t>
@@ -3935,6 +4120,11 @@
       <c r="T39">
         <v>17.74724643827804</v>
       </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr">
         <is>
           <t>N</t>
@@ -4026,6 +4216,11 @@
       <c r="T40">
         <v>17.00777783668329</v>
       </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V40" t="inlineStr">
         <is>
           <t>N</t>
@@ -4117,6 +4312,11 @@
       <c r="T41">
         <v>15.52884063349322</v>
       </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr">
         <is>
           <t>N</t>
@@ -4208,6 +4408,11 @@
       <c r="T42">
         <v>10.15228426395939</v>
       </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr">
         <is>
           <t>N</t>
@@ -4299,6 +4504,11 @@
       <c r="T43">
         <v>9.746192893401002</v>
       </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V43" t="inlineStr">
         <is>
           <t>N</t>
@@ -4390,6 +4600,11 @@
       <c r="T44">
         <v>9.340101522842644</v>
       </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V44" t="inlineStr">
         <is>
           <t>N</t>
@@ -4481,6 +4696,11 @@
       <c r="T45">
         <v>9.775825027673852</v>
       </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V45" t="inlineStr">
         <is>
           <t>N</t>
@@ -4572,6 +4792,11 @@
       <c r="T46">
         <v>9.775825027673818</v>
       </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V46" t="inlineStr">
         <is>
           <t>N</t>
@@ -4663,6 +4888,11 @@
       <c r="T47">
         <v>9.775825027673781</v>
       </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V47" t="inlineStr">
         <is>
           <t>N</t>
@@ -4754,6 +4984,11 @@
       <c r="T48">
         <v>9.40692597002572</v>
       </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V48" t="inlineStr">
         <is>
           <t>N</t>
@@ -4845,6 +5080,11 @@
       <c r="T49">
         <v>9.222476441201707</v>
       </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V49" t="inlineStr">
         <is>
           <t>N</t>
@@ -4936,6 +5176,11 @@
       <c r="T50">
         <v>9.03802691237769</v>
       </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V50" t="inlineStr">
         <is>
           <t>N</t>
@@ -5027,6 +5272,11 @@
       <c r="T51">
         <v>5.030202150358318</v>
       </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V51" t="inlineStr">
         <is>
           <t>N</t>
@@ -5118,6 +5368,11 @@
       <c r="T52">
         <v>4.811497709038387</v>
       </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V52" t="inlineStr">
         <is>
           <t>N</t>
@@ -5209,6 +5464,11 @@
       <c r="T53">
         <v>4.592793267718458</v>
       </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr">
         <is>
           <t>N</t>
@@ -5300,6 +5560,11 @@
       <c r="T54">
         <v>4.592793267718458</v>
       </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V54" t="inlineStr">
         <is>
           <t>N</t>
@@ -5391,6 +5656,11 @@
       <c r="T55">
         <v>4.374088826398538</v>
       </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V55" t="inlineStr">
         <is>
           <t>N</t>
@@ -5482,6 +5752,11 @@
       <c r="T56">
         <v>4.37408882639853</v>
       </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V56" t="inlineStr">
         <is>
           <t>N</t>
@@ -5573,6 +5848,11 @@
       <c r="T57">
         <v>1.611412941075834</v>
       </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V57" t="inlineStr">
         <is>
           <t>N</t>
@@ -5664,6 +5944,11 @@
       <c r="T58">
         <v>1.117642075766571</v>
       </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V58" t="inlineStr">
         <is>
           <t>N</t>
@@ -5755,6 +6040,11 @@
       <c r="T59">
         <v>1.280761492238114</v>
       </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V59" t="inlineStr">
         <is>
           <t>N</t>
@@ -5846,6 +6136,11 @@
       <c r="T60">
         <v>1.243901463007903</v>
       </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V60" t="inlineStr">
         <is>
           <t>N</t>
@@ -5937,6 +6232,11 @@
       <c r="T61">
         <v>47.05349493185599</v>
       </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V61" t="inlineStr">
         <is>
           <t>N</t>
@@ -6028,6 +6328,11 @@
       <c r="T62">
         <v>0.944470015993685</v>
       </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V62" t="inlineStr">
         <is>
           <t>N</t>
@@ -6119,6 +6424,11 @@
       <c r="T63">
         <v>0.5780160586891707</v>
       </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V63" t="inlineStr">
         <is>
           <t>N</t>
@@ -6210,6 +6520,11 @@
       <c r="T64">
         <v>0.3967726949130591</v>
       </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V64" t="inlineStr">
         <is>
           <t>N</t>
@@ -6301,6 +6616,11 @@
       <c r="T65">
         <v>0.5953523699830585</v>
       </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V65" t="inlineStr">
         <is>
           <t>N</t>
@@ -6392,6 +6712,11 @@
       <c r="T66">
         <v>0.4718756898449707</v>
       </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V66" t="inlineStr">
         <is>
           <t>N</t>
@@ -6483,6 +6808,11 @@
       <c r="T67">
         <v>0.3707135975771204</v>
       </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V67" t="inlineStr">
         <is>
           <t>N</t>
@@ -6574,6 +6904,11 @@
       <c r="T68">
         <v>0.4672302361440787</v>
       </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V68" t="inlineStr">
         <is>
           <t>N</t>
@@ -6665,6 +7000,11 @@
       <c r="T69">
         <v>0.07283716445093343</v>
       </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V69" t="inlineStr">
         <is>
           <t>N</t>
@@ -6756,6 +7096,11 @@
       <c r="T70">
         <v>0.06799615649355516</v>
       </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V70" t="inlineStr">
         <is>
           <t>N</t>
@@ -6847,6 +7192,11 @@
       <c r="T71">
         <v>0.07098227163324976</v>
       </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V71" t="inlineStr">
         <is>
           <t>N</t>
@@ -6938,6 +7288,11 @@
       <c r="T72">
         <v>64.39520833992898</v>
       </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V72" t="inlineStr">
         <is>
           <t>N</t>
@@ -7029,6 +7384,11 @@
       <c r="T73">
         <v>43.24261566468674</v>
       </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V73" t="inlineStr">
         <is>
           <t>N</t>
@@ -7120,6 +7480,11 @@
       <c r="T74">
         <v>58.57473858242988</v>
       </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V74" t="inlineStr">
         <is>
           <t>N</t>
@@ -7211,6 +7576,11 @@
       <c r="T75">
         <v>58.76698753151646</v>
       </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V75" t="inlineStr">
         <is>
           <t>N</t>
@@ -7302,6 +7672,11 @@
       <c r="T76">
         <v>44.15125909363132</v>
       </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V76" t="inlineStr">
         <is>
           <t>N</t>
@@ -7393,6 +7768,11 @@
       <c r="T77">
         <v>48.88251221040097</v>
       </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V77" t="inlineStr">
         <is>
           <t>N</t>
@@ -7484,6 +7864,11 @@
       <c r="T78">
         <v>42.43109043964621</v>
       </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V78" t="inlineStr">
         <is>
           <t>N</t>
@@ -7575,6 +7960,11 @@
       <c r="T79">
         <v>32.46096556965436</v>
       </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V79" t="inlineStr">
         <is>
           <t>N</t>
@@ -7666,6 +8056,11 @@
       <c r="T80">
         <v>35.13347564803561</v>
       </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V80" t="inlineStr">
         <is>
           <t>N</t>
@@ -7757,6 +8152,11 @@
       <c r="T81">
         <v>34.15684497256051</v>
       </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V81" t="inlineStr">
         <is>
           <t>N</t>
@@ -7848,6 +8248,11 @@
       <c r="T82">
         <v>28.19948778100608</v>
       </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V82" t="inlineStr">
         <is>
           <t>N</t>
@@ -7939,6 +8344,11 @@
       <c r="T83">
         <v>29.66639914272101</v>
       </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V83" t="inlineStr">
         <is>
           <t>N</t>
@@ -8030,6 +8440,11 @@
       <c r="T84">
         <v>5.678863878408688</v>
       </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V84" t="inlineStr">
         <is>
           <t>N</t>
@@ -8121,6 +8536,11 @@
       <c r="T85">
         <v>4.301055095045846</v>
       </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V85" t="inlineStr">
         <is>
           <t>N</t>
@@ -8212,6 +8632,11 @@
       <c r="T86">
         <v>4.317160380869913</v>
       </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V86" t="inlineStr">
         <is>
           <t>N</t>
@@ -8303,6 +8728,11 @@
       <c r="T87">
         <v>1.164171000174398</v>
       </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V87" t="inlineStr">
         <is>
           <t>N</t>
@@ -8394,6 +8824,11 @@
       <c r="T88">
         <v>1.191597451671995</v>
       </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V88" t="inlineStr">
         <is>
           <t>N</t>
@@ -8485,6 +8920,11 @@
       <c r="T89">
         <v>0.2951871657754008</v>
       </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V89" t="inlineStr">
         <is>
           <t>N</t>
@@ -8576,6 +9016,11 @@
       <c r="T90">
         <v>0.4762517727986182</v>
       </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V90" t="inlineStr">
         <is>
           <t>N</t>
@@ -8667,6 +9112,11 @@
       <c r="T91">
         <v>0.7396122113826177</v>
       </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V91" t="inlineStr">
         <is>
           <t>N</t>
@@ -8758,6 +9208,11 @@
       <c r="T92">
         <v>0.0513368983957223</v>
       </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V92" t="inlineStr">
         <is>
           <t>N</t>
@@ -8849,6 +9304,11 @@
       <c r="T93">
         <v>18</v>
       </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V93" t="inlineStr">
         <is>
           <t>N</t>
@@ -8940,6 +9400,11 @@
       <c r="T94">
         <v>12</v>
       </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V94" t="inlineStr">
         <is>
           <t>N</t>
@@ -9031,6 +9496,11 @@
       <c r="T95">
         <v>20.6155281280883</v>
       </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V95" t="inlineStr">
         <is>
           <t>N</t>
@@ -9122,6 +9592,11 @@
       <c r="T96">
         <v>16.49242250247064</v>
       </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V96" t="inlineStr">
         <is>
           <t>N</t>
@@ -9213,6 +9688,11 @@
       <c r="T97">
         <v>25.61249694973139</v>
       </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V97" t="inlineStr">
         <is>
           <t>N</t>
@@ -9304,6 +9784,11 @@
       <c r="T98">
         <v>19.20937271229855</v>
       </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V98" t="inlineStr">
         <is>
           <t>N</t>
@@ -9395,6 +9880,11 @@
       <c r="T99">
         <v>24.0786240786241</v>
       </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V99" t="inlineStr">
         <is>
           <t>N</t>
@@ -9486,6 +9976,11 @@
       <c r="T100">
         <v>19.95085995085992</v>
       </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V100" t="inlineStr">
         <is>
           <t>N</t>
@@ -9577,6 +10072,11 @@
       <c r="T101">
         <v>31.20188041007964</v>
       </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V101" t="inlineStr">
         <is>
           <t>N</t>
@@ -9668,6 +10168,11 @@
       <c r="T102">
         <v>41.84842867707954</v>
       </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V102" t="inlineStr">
         <is>
           <t>N</t>
@@ -9759,6 +10264,11 @@
       <c r="T103">
         <v>18.43747478777437</v>
       </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V103" t="inlineStr">
         <is>
           <t>N</t>
@@ -9850,6 +10360,11 @@
       <c r="T104">
         <v>15.41784214418722</v>
       </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V104" t="inlineStr">
         <is>
           <t>N</t>
@@ -9941,6 +10456,11 @@
       <c r="T105">
         <v>0.9308061022576076</v>
       </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V105" t="inlineStr">
         <is>
           <t>N</t>
@@ -10032,6 +10552,11 @@
       <c r="T106">
         <v>0.07348469228349533</v>
       </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V106" t="inlineStr">
         <is>
           <t>N</t>
@@ -10123,6 +10648,11 @@
       <c r="T107">
         <v>86.91756554345042</v>
       </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V107" t="inlineStr">
         <is>
           <t>N</t>
@@ -10214,6 +10744,11 @@
       <c r="T108">
         <v>24.30925749585947</v>
       </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V108" t="inlineStr">
         <is>
           <t>N</t>
@@ -10305,6 +10840,11 @@
       <c r="T109">
         <v>273.226060250482</v>
       </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V109" t="inlineStr">
         <is>
           <t>N</t>
@@ -10396,6 +10936,11 @@
       <c r="T110">
         <v>88.78666904440102</v>
       </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V110" t="inlineStr">
         <is>
           <t>N</t>
@@ -10487,6 +11032,11 @@
       <c r="T111">
         <v>735.5188644759562</v>
       </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V111" t="inlineStr">
         <is>
           <t>N</t>
@@ -10578,6 +11128,11 @@
       <c r="T112">
         <v>661.4378277661477</v>
       </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V112" t="inlineStr">
         <is>
           <t>N</t>
@@ -10669,6 +11224,11 @@
       <c r="T113">
         <v>613.814304166985</v>
       </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V113" t="inlineStr">
         <is>
           <t>N</t>
@@ -10760,6 +11320,11 @@
       <c r="T114">
         <v>608.5228015448558</v>
       </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V114" t="inlineStr">
         <is>
           <t>N</t>
@@ -10851,6 +11416,11 @@
       <c r="T115">
         <v>603.2312989227266</v>
       </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V115" t="inlineStr">
         <is>
           <t>N</t>
@@ -10942,6 +11512,11 @@
       <c r="T116">
         <v>587.3567910563391</v>
       </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V116" t="inlineStr">
         <is>
           <t>N</t>
@@ -11033,6 +11608,11 @@
       <c r="T117">
         <v>582.0652884342099</v>
       </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V117" t="inlineStr">
         <is>
           <t>N</t>
@@ -11124,6 +11704,11 @@
       <c r="T118">
         <v>582.0652884342099</v>
       </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V118" t="inlineStr">
         <is>
           <t>N</t>
@@ -11215,6 +11800,11 @@
       <c r="T119">
         <v>582.0652884342099</v>
       </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V119" t="inlineStr">
         <is>
           <t>N</t>
@@ -11306,6 +11896,11 @@
       <c r="T120">
         <v>576.7737858120807</v>
       </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V120" t="inlineStr">
         <is>
           <t>N</t>
@@ -11397,6 +11992,11 @@
       <c r="T121">
         <v>576.7737858120807</v>
       </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V121" t="inlineStr">
         <is>
           <t>N</t>
@@ -11488,6 +12088,11 @@
       <c r="T122">
         <v>571.4822831899515</v>
       </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V122" t="inlineStr">
         <is>
           <t>N</t>
@@ -11579,6 +12184,11 @@
       <c r="T123">
         <v>550.3162727014349</v>
       </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V123" t="inlineStr">
         <is>
           <t>N</t>
@@ -11670,6 +12280,11 @@
       <c r="T124">
         <v>492.1097438580139</v>
       </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V124" t="inlineStr">
         <is>
           <t>N</t>
@@ -11761,6 +12376,11 @@
       <c r="T125">
         <v>476.2352359916263</v>
       </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V125" t="inlineStr">
         <is>
           <t>N</t>
@@ -11852,6 +12472,11 @@
       <c r="T126">
         <v>455.0692255031096</v>
       </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V126" t="inlineStr">
         <is>
           <t>N</t>
@@ -11943,6 +12568,11 @@
       <c r="T127">
         <v>449.7777228809804</v>
       </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V127" t="inlineStr">
         <is>
           <t>N</t>
@@ -12034,6 +12664,11 @@
       <c r="T128">
         <v>444.4862202588512</v>
       </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V128" t="inlineStr">
         <is>
           <t>N</t>
@@ -12125,6 +12760,11 @@
       <c r="T129">
         <v>444.4862202588512</v>
       </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V129" t="inlineStr">
         <is>
           <t>N</t>
@@ -12216,6 +12856,11 @@
       <c r="T130">
         <v>380.988188793301</v>
       </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V130" t="inlineStr">
         <is>
           <t>N</t>
@@ -12307,6 +12952,11 @@
       <c r="T131">
         <v>349.239173060526</v>
       </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V131" t="inlineStr">
         <is>
           <t>N</t>
@@ -12398,6 +13048,11 @@
       <c r="T132">
         <v>333.3646651941384</v>
       </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V132" t="inlineStr">
         <is>
           <t>N</t>
@@ -12489,6 +13144,11 @@
       <c r="T133">
         <v>285.7411415949758</v>
       </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V133" t="inlineStr">
         <is>
           <t>N</t>
@@ -12580,6 +13240,11 @@
       <c r="T134">
         <v>269.8666337285882</v>
       </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V134" t="inlineStr">
         <is>
           <t>N</t>
@@ -12671,6 +13336,11 @@
       <c r="T135">
         <v>11.77794549146837</v>
       </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V135" t="inlineStr">
         <is>
           <t>N</t>
@@ -12762,6 +13432,11 @@
       <c r="T136">
         <v>47.4208814764129</v>
       </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V136" t="inlineStr">
         <is>
           <t>N</t>
@@ -12853,6 +13528,11 @@
       <c r="T137">
         <v>38.42971636883394</v>
       </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V137" t="inlineStr">
         <is>
           <t>N</t>
@@ -12944,6 +13624,11 @@
       <c r="T138">
         <v>37.50000000000009</v>
       </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V138" t="inlineStr">
         <is>
           <t>N</t>
@@ -13035,6 +13720,11 @@
       <c r="T139">
         <v>35.35533905932746</v>
       </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V139" t="inlineStr">
         <is>
           <t>N</t>
@@ -13126,6 +13816,11 @@
       <c r="T140">
         <v>37.5</v>
       </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V140" t="inlineStr">
         <is>
           <t>N</t>
@@ -13217,6 +13912,11 @@
       <c r="T141">
         <v>36.09121242583476</v>
       </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V141" t="inlineStr">
         <is>
           <t>N</t>
@@ -13308,6 +14008,11 @@
       <c r="T142">
         <v>36.09121242583476</v>
       </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V142" t="inlineStr">
         <is>
           <t>N</t>
@@ -13399,6 +14104,11 @@
       <c r="T143">
         <v>37.65327842541046</v>
       </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V143" t="inlineStr">
         <is>
           <t>N</t>
@@ -13490,6 +14200,11 @@
       <c r="T144">
         <v>37.65327842541046</v>
       </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V144" t="inlineStr">
         <is>
           <t>N</t>
@@ -13581,6 +14296,11 @@
       <c r="T145">
         <v>87.6332363945494</v>
       </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V145" t="inlineStr">
         <is>
           <t>N</t>
@@ -13672,6 +14392,11 @@
       <c r="T146">
         <v>86.3942418703666</v>
       </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V146" t="inlineStr">
         <is>
           <t>N</t>
@@ -13763,6 +14488,11 @@
       <c r="T147">
         <v>0.17</v>
       </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V147" t="inlineStr">
         <is>
           <t>N</t>
@@ -13854,6 +14584,11 @@
       <c r="T148">
         <v>0.23</v>
       </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V148" t="inlineStr">
         <is>
           <t>N</t>
@@ -13945,6 +14680,11 @@
       <c r="T149">
         <v>0.44</v>
       </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V149" t="inlineStr">
         <is>
           <t>N</t>
@@ -14036,6 +14776,11 @@
       <c r="T150">
         <v>0.27</v>
       </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V150" t="inlineStr">
         <is>
           <t>N</t>
@@ -14127,6 +14872,11 @@
       <c r="T151">
         <v>25.52363687945158</v>
       </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V151" t="inlineStr">
         <is>
           <t>N</t>
@@ -14218,6 +14968,11 @@
       <c r="T152">
         <v>22.54241163435433</v>
       </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V152" t="inlineStr">
         <is>
           <t>N</t>
@@ -14309,6 +15064,11 @@
       <c r="T153">
         <v>19.37905763069471</v>
       </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V153" t="inlineStr">
         <is>
           <t>N</t>
@@ -14400,6 +15160,11 @@
       <c r="T154">
         <v>12.77257574429756</v>
       </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V154" t="inlineStr">
         <is>
           <t>N</t>
@@ -14491,6 +15256,11 @@
       <c r="T155">
         <v>10.95491084610127</v>
       </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V155" t="inlineStr">
         <is>
           <t>N</t>
@@ -14582,6 +15352,11 @@
       <c r="T156">
         <v>15.511956022274</v>
       </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V156" t="inlineStr">
         <is>
           <t>N</t>
@@ -14673,6 +15448,11 @@
       <c r="T157">
         <v>10.41224568745433</v>
       </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V157" t="inlineStr">
         <is>
           <t>N</t>
@@ -14764,6 +15544,11 @@
       <c r="T158">
         <v>9.485107650965857</v>
       </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V158" t="inlineStr">
         <is>
           <t>N</t>
@@ -14855,6 +15640,11 @@
       <c r="T159">
         <v>1.787439613526569</v>
       </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V159" t="inlineStr">
         <is>
           <t>N</t>
@@ -14946,6 +15736,11 @@
       <c r="T160">
         <v>2.028985507246376</v>
       </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V160" t="inlineStr">
         <is>
           <t>N</t>
@@ -15037,6 +15832,11 @@
       <c r="T161">
         <v>1.159420289855072</v>
       </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V161" t="inlineStr">
         <is>
           <t>N</t>
@@ -15128,6 +15928,11 @@
       <c r="T162">
         <v>1.359477124183016</v>
       </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V162" t="inlineStr">
         <is>
           <t>N</t>
@@ -15219,6 +16024,11 @@
       <c r="T163">
         <v>0.7768440709617153</v>
       </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V163" t="inlineStr">
         <is>
           <t>N</t>
@@ -15310,6 +16120,11 @@
       <c r="T164">
         <v>13.7889822595706</v>
       </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V164" t="inlineStr">
         <is>
           <t>N</t>
@@ -15401,6 +16216,11 @@
       <c r="T165">
         <v>11.264239028945</v>
       </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V165" t="inlineStr">
         <is>
           <t>N</t>
@@ -15492,6 +16312,11 @@
       <c r="T166">
         <v>19.03267973856222</v>
       </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V166" t="inlineStr">
         <is>
           <t>N</t>
@@ -15580,6 +16405,11 @@
       <c r="T167">
         <v>262.4585300576074</v>
       </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V167" t="inlineStr">
         <is>
           <t>N</t>
@@ -15668,6 +16498,11 @@
       <c r="T168">
         <v>240.4987941757713</v>
       </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V168" t="inlineStr">
         <is>
           <t>N</t>
@@ -15756,6 +16591,11 @@
       <c r="T169">
         <v>201.8708250342283</v>
       </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V169" t="inlineStr">
         <is>
           <t>N</t>
@@ -15844,6 +16684,11 @@
       <c r="T170">
         <v>61.11685528559205</v>
       </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V170" t="inlineStr">
         <is>
           <t>N</t>
@@ -15932,6 +16777,11 @@
       <c r="T171">
         <v>53.7087516146112</v>
       </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V171" t="inlineStr">
         <is>
           <t>N</t>
@@ -16020,6 +16870,11 @@
       <c r="T172">
         <v>50.79842517244014</v>
       </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V172" t="inlineStr">
         <is>
           <t>N</t>
@@ -16108,6 +16963,11 @@
       <c r="T173">
         <v>0.004242640687119286</v>
       </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V173" t="inlineStr">
         <is>
           <t>N</t>
@@ -16196,6 +17056,11 @@
       <c r="T174">
         <v>0.00447213595499958</v>
       </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V174" t="inlineStr">
         <is>
           <t>N</t>
@@ -16284,6 +17149,11 @@
       <c r="T175">
         <v>0.00223606797749979</v>
       </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V175" t="inlineStr">
         <is>
           <t>N</t>
@@ -16372,6 +17242,11 @@
       <c r="T176">
         <v>0.00223606797749979</v>
       </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V176" t="inlineStr">
         <is>
           <t>N</t>
@@ -16463,6 +17338,11 @@
       <c r="T177">
         <v>17.37515197894712</v>
       </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V177" t="inlineStr">
         <is>
           <t>N</t>
@@ -16554,6 +17434,11 @@
       <c r="T178">
         <v>17.37515197894712</v>
       </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V178" t="inlineStr">
         <is>
           <t>N</t>
@@ -16645,6 +17530,11 @@
       <c r="T179">
         <v>4.748164654907497</v>
       </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V179" t="inlineStr">
         <is>
           <t>N</t>
@@ -16736,6 +17626,11 @@
       <c r="T180">
         <v>4.748164654907497</v>
       </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V180" t="inlineStr">
         <is>
           <t>N</t>
@@ -16827,6 +17722,11 @@
       <c r="T181">
         <v>17.37515197894712</v>
       </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V181" t="inlineStr">
         <is>
           <t>N</t>
@@ -16918,6 +17818,11 @@
       <c r="T182">
         <v>10.36812347596181</v>
       </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V182" t="inlineStr">
         <is>
           <t>N</t>
@@ -17009,6 +17914,11 @@
       <c r="T183">
         <v>4.748164654907497</v>
       </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V183" t="inlineStr">
         <is>
           <t>N</t>
@@ -17100,6 +18010,11 @@
       <c r="T184">
         <v>4.748164654907497</v>
       </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V184" t="inlineStr">
         <is>
           <t>N</t>
@@ -17191,6 +18106,11 @@
       <c r="T185">
         <v>20875.55269265591</v>
       </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V185" t="inlineStr">
         <is>
           <t>N</t>
@@ -17282,6 +18202,11 @@
       <c r="T186">
         <v>17258.50148353236</v>
       </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V186" t="inlineStr">
         <is>
           <t>N</t>
@@ -17373,6 +18298,11 @@
       <c r="T187">
         <v>3000.584792429022</v>
       </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V187" t="inlineStr">
         <is>
           <t>N</t>
@@ -17464,6 +18394,11 @@
       <c r="T188">
         <v>2983.34005224265</v>
       </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V188" t="inlineStr">
         <is>
           <t>N</t>
@@ -17555,6 +18490,11 @@
       <c r="T189">
         <v>2948.850571869903</v>
       </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V189" t="inlineStr">
         <is>
           <t>N</t>
@@ -17646,6 +18586,11 @@
       <c r="T190">
         <v>3353.104760350955</v>
       </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V190" t="inlineStr">
         <is>
           <t>N</t>
@@ -17737,6 +18682,11 @@
       <c r="T191">
         <v>1756.85344443144</v>
       </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V191" t="inlineStr">
         <is>
           <t>N</t>
@@ -17828,6 +18778,11 @@
       <c r="T192">
         <v>3203.169181636072</v>
       </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V192" t="inlineStr">
         <is>
           <t>N</t>
@@ -17919,6 +18874,11 @@
       <c r="T193">
         <v>2766.992952647332</v>
       </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V193" t="inlineStr">
         <is>
           <t>N</t>
@@ -18010,6 +18970,11 @@
       <c r="T194">
         <v>39.90645060638693</v>
       </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V194" t="inlineStr">
         <is>
           <t>N</t>
@@ -18101,6 +19066,11 @@
       <c r="T195">
         <v>7.811186003784205</v>
       </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V195" t="inlineStr">
         <is>
           <t>N</t>
@@ -18192,6 +19162,11 @@
       <c r="T196">
         <v>6.011398102176993</v>
       </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V196" t="inlineStr">
         <is>
           <t>N</t>
@@ -18283,6 +19258,11 @@
       <c r="T197">
         <v>5.492308908178522</v>
       </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V197" t="inlineStr">
         <is>
           <t>N</t>
@@ -18374,6 +19354,11 @@
       <c r="T198">
         <v>12.21752254521583</v>
       </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V198" t="inlineStr">
         <is>
           <t>N</t>
@@ -18465,6 +19450,11 @@
       <c r="T199">
         <v>9.380831519646859</v>
       </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V199" t="inlineStr">
         <is>
           <t>N</t>
@@ -18556,6 +19546,11 @@
       <c r="T200">
         <v>1.356202681860537</v>
       </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V200" t="inlineStr">
         <is>
           <t>N</t>
@@ -18647,6 +19642,11 @@
       <c r="T201">
         <v>167882.3620405836</v>
       </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V201" t="inlineStr">
         <is>
           <t>N</t>
@@ -18738,6 +19738,11 @@
       <c r="T202">
         <v>37181.99964657216</v>
       </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V202" t="inlineStr">
         <is>
           <t>N</t>
@@ -18829,6 +19834,11 @@
       <c r="T203">
         <v>23022.45944289777</v>
       </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V203" t="inlineStr">
         <is>
           <t>N</t>
@@ -18920,6 +19930,11 @@
       <c r="T204">
         <v>15218.23590293242</v>
       </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V204" t="inlineStr">
         <is>
           <t>N</t>
@@ -19011,6 +20026,11 @@
       <c r="T205">
         <v>6760.363572104022</v>
       </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V205" t="inlineStr">
         <is>
           <t>N</t>
@@ -19102,6 +20122,11 @@
       <c r="T206">
         <v>5462.956477975744</v>
       </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V206" t="inlineStr">
         <is>
           <t>N</t>
@@ -19193,6 +20218,11 @@
       <c r="T207">
         <v>3142.092614783429</v>
       </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V207" t="inlineStr">
         <is>
           <t>N</t>
@@ -19284,6 +20314,11 @@
       <c r="T208">
         <v>314.2092614783435</v>
       </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V208" t="inlineStr">
         <is>
           <t>N</t>
@@ -19375,6 +20410,11 @@
       <c r="T209">
         <v>74.59761259580677</v>
       </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V209" t="inlineStr">
         <is>
           <t>N</t>
@@ -19466,6 +20506,11 @@
       <c r="T210">
         <v>27.79126743765346</v>
       </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V210" t="inlineStr">
         <is>
           <t>N</t>
@@ -19557,6 +20602,11 @@
       <c r="T211">
         <v>0.06</v>
       </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V211" t="inlineStr">
         <is>
           <t>N</t>
@@ -19648,6 +20698,11 @@
       <c r="T212">
         <v>0.05</v>
       </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V212" t="inlineStr">
         <is>
           <t>N</t>
@@ -19739,6 +20794,11 @@
       <c r="T213">
         <v>265.1650429449543</v>
       </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V213" t="inlineStr">
         <is>
           <t>N</t>
@@ -19830,6 +20890,11 @@
       <c r="T214">
         <v>124.7835496211558</v>
       </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V214" t="inlineStr">
         <is>
           <t>N</t>
@@ -19921,6 +20986,11 @@
       <c r="T215">
         <v>296.3609303502447</v>
       </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V215" t="inlineStr">
         <is>
           <t>N</t>
@@ -20012,6 +21082,11 @@
       <c r="T216">
         <v>46.79383110793366</v>
       </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V216" t="inlineStr">
         <is>
           <t>N</t>
@@ -20103,6 +21178,11 @@
       <c r="T217">
         <v>1.531220462853125</v>
       </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V217" t="inlineStr">
         <is>
           <t>N</t>
@@ -20194,6 +21274,11 @@
       <c r="T218">
         <v>1.020813641902079</v>
       </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V218" t="inlineStr">
         <is>
           <t>N</t>
@@ -20285,6 +21370,11 @@
       <c r="T219">
         <v>7.280063678085432</v>
       </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V219" t="inlineStr">
         <is>
           <t>N</t>
@@ -20376,6 +21466,11 @@
       <c r="T220">
         <v>2.912025471234207</v>
       </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V220" t="inlineStr">
         <is>
           <t>N</t>
@@ -20467,6 +21562,11 @@
       <c r="T221">
         <v>19.56157309812763</v>
       </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V221" t="inlineStr">
         <is>
           <t>N</t>
@@ -20558,6 +21658,11 @@
       <c r="T222">
         <v>17.50246014043</v>
       </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V222" t="inlineStr">
         <is>
           <t>N</t>
@@ -20649,6 +21754,11 @@
       <c r="T223">
         <v>11.7239637872573</v>
       </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V223" t="inlineStr">
         <is>
           <t>N</t>
@@ -20740,6 +21850,11 @@
       <c r="T224">
         <v>12.27254113628535</v>
       </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V224" t="inlineStr">
         <is>
           <t>N</t>
@@ -20831,6 +21946,11 @@
       <c r="T225">
         <v>8.826238612489824</v>
       </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V225" t="inlineStr">
         <is>
           <t>N</t>
@@ -20922,6 +22042,11 @@
       <c r="T226">
         <v>8.411704972138661</v>
       </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V226" t="inlineStr">
         <is>
           <t>N</t>
@@ -21013,6 +22138,11 @@
       <c r="T227">
         <v>6.029051531177305</v>
       </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V227" t="inlineStr">
         <is>
           <t>N</t>
@@ -21104,6 +22234,11 @@
       <c r="T228">
         <v>6.460978067495081</v>
       </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V228" t="inlineStr">
         <is>
           <t>N</t>
@@ -21195,6 +22330,11 @@
       <c r="T229">
         <v>4.096171325594126</v>
       </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V229" t="inlineStr">
         <is>
           <t>N</t>
@@ -21286,6 +22426,11 @@
       <c r="T230">
         <v>0.3535533905932738</v>
       </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V230" t="inlineStr">
         <is>
           <t>N</t>
@@ -21377,6 +22522,11 @@
       <c r="T231">
         <v>7.448433839852957</v>
       </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V231" t="inlineStr">
         <is>
           <t>N</t>
@@ -21468,6 +22618,11 @@
       <c r="T232">
         <v>55.10046857142928</v>
       </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V232" t="inlineStr">
         <is>
           <t>N</t>
@@ -21559,6 +22714,11 @@
       <c r="T233">
         <v>61.88470933451372</v>
       </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V233" t="inlineStr">
         <is>
           <t>N</t>
@@ -21650,6 +22810,11 @@
       <c r="T234">
         <v>23.56618032419475</v>
       </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V234" t="inlineStr">
         <is>
           <t>N</t>
@@ -21741,6 +22906,11 @@
       <c r="T235">
         <v>40.82215664758073</v>
       </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V235" t="inlineStr">
         <is>
           <t>N</t>
@@ -21832,6 +23002,11 @@
       <c r="T236">
         <v>29.59574402707472</v>
       </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V236" t="inlineStr">
         <is>
           <t>N</t>
@@ -21923,6 +23098,11 @@
       <c r="T237">
         <v>37.66874562768345</v>
       </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V237" t="inlineStr">
         <is>
           <t>N</t>
@@ -22014,6 +23194,11 @@
       <c r="T238">
         <v>86.42407439435284</v>
       </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V238" t="inlineStr">
         <is>
           <t>N</t>
@@ -22105,6 +23290,11 @@
       <c r="T239">
         <v>23.25819049979329</v>
       </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V239" t="inlineStr">
         <is>
           <t>N</t>
@@ -22196,6 +23386,11 @@
       <c r="T240">
         <v>9.51428590928588</v>
       </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V240" t="inlineStr">
         <is>
           <t>N</t>
@@ -22287,6 +23482,11 @@
       <c r="T241">
         <v>24.04163056034261</v>
       </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V241" t="inlineStr">
         <is>
           <t>N</t>
@@ -22378,6 +23578,11 @@
       <c r="T242">
         <v>10.60660171779821</v>
       </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V242" t="inlineStr">
         <is>
           <t>N</t>
@@ -22469,6 +23674,11 @@
       <c r="T243">
         <v>22.13460703067411</v>
       </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V243" t="inlineStr">
         <is>
           <t>N</t>
@@ -22560,6 +23770,11 @@
       <c r="T244">
         <v>18.07692307692308</v>
       </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V244" t="inlineStr">
         <is>
           <t>N</t>
@@ -22651,6 +23866,11 @@
       <c r="T245">
         <v>16.24769254409015</v>
       </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V245" t="inlineStr">
         <is>
           <t>N</t>
@@ -22742,6 +23962,11 @@
       <c r="T246">
         <v>12.48349586833326</v>
       </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V246" t="inlineStr">
         <is>
           <t>N</t>
@@ -22833,6 +24058,11 @@
       <c r="T247">
         <v>17.54365966098217</v>
       </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V247" t="inlineStr">
         <is>
           <t>N</t>
@@ -22924,6 +24154,11 @@
       <c r="T248">
         <v>15.16412115667439</v>
       </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V248" t="inlineStr">
         <is>
           <t>N</t>
@@ -23015,6 +24250,11 @@
       <c r="T249">
         <v>14.76923076923078</v>
       </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V249" t="inlineStr">
         <is>
           <t>N</t>
@@ -23106,6 +24346,11 @@
       <c r="T250">
         <v>15.81043359333861</v>
       </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V250" t="inlineStr">
         <is>
           <t>N</t>
@@ -23197,6 +24442,11 @@
       <c r="T251">
         <v>93.00953001415108</v>
       </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V251" t="inlineStr">
         <is>
           <t>N</t>
@@ -23288,6 +24538,11 @@
       <c r="T252">
         <v>72.19674970859572</v>
       </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V252" t="inlineStr">
         <is>
           <t>N</t>
@@ -23379,6 +24634,11 @@
       <c r="T253">
         <v>30.78706407609175</v>
       </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V253" t="inlineStr">
         <is>
           <t>N</t>
@@ -23470,6 +24730,11 @@
       <c r="T254">
         <v>28.44283819933272</v>
       </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V254" t="inlineStr">
         <is>
           <t>N</t>
@@ -23561,6 +24826,11 @@
       <c r="T255">
         <v>21.0974240738912</v>
       </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V255" t="inlineStr">
         <is>
           <t>N</t>
@@ -23652,6 +24922,11 @@
       <c r="T256">
         <v>16.72744910127188</v>
       </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V256" t="inlineStr">
         <is>
           <t>N</t>
@@ -23743,6 +25018,11 @@
       <c r="T257">
         <v>2.352955596805567</v>
       </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V257" t="inlineStr">
         <is>
           <t>N</t>
@@ -23834,6 +25114,11 @@
       <c r="T258">
         <v>1.948460259682722</v>
       </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V258" t="inlineStr">
         <is>
           <t>N</t>
@@ -23925,6 +25210,11 @@
       <c r="T259">
         <v>1.343004234406614</v>
       </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V259" t="inlineStr">
         <is>
           <t>N</t>
@@ -24016,6 +25306,11 @@
       <c r="T260">
         <v>1.046398148189002</v>
       </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V260" t="inlineStr">
         <is>
           <t>N</t>
@@ -24107,6 +25402,11 @@
       <c r="T261">
         <v>0.8852601634985549</v>
       </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V261" t="inlineStr">
         <is>
           <t>N</t>
@@ -24198,6 +25498,11 @@
       <c r="T262">
         <v>0.6236802539952403</v>
       </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V262" t="inlineStr">
         <is>
           <t>N</t>
@@ -24289,6 +25594,11 @@
       <c r="T263">
         <v>0.578950040466624</v>
       </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V263" t="inlineStr">
         <is>
           <t>N</t>
@@ -24380,6 +25690,11 @@
       <c r="T264">
         <v>0.5969269779452857</v>
       </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V264" t="inlineStr">
         <is>
           <t>N</t>
@@ -24471,6 +25786,11 @@
       <c r="T265">
         <v>0.5127280748000055</v>
       </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V265" t="inlineStr">
         <is>
           <t>N</t>
@@ -24562,6 +25882,11 @@
       <c r="T266">
         <v>0.4039819737339019</v>
       </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V266" t="inlineStr">
         <is>
           <t>N</t>
@@ -24653,6 +25978,11 @@
       <c r="T267">
         <v>0.2807251130654138</v>
       </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V267" t="inlineStr">
         <is>
           <t>N</t>
@@ -24744,6 +26074,11 @@
       <c r="T268">
         <v>0.2616612050051252</v>
       </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V268" t="inlineStr">
         <is>
           <t>N</t>
@@ -24835,6 +26170,11 @@
       <c r="T269">
         <v>378.4610130832338</v>
       </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V269" t="inlineStr">
         <is>
           <t>N</t>
@@ -24926,6 +26266,11 @@
       <c r="T270">
         <v>242.6820982895735</v>
       </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V270" t="inlineStr">
         <is>
           <t>N</t>
@@ -25017,6 +26362,11 @@
       <c r="T271">
         <v>203.41038299088</v>
       </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V271" t="inlineStr">
         <is>
           <t>N</t>
@@ -25108,6 +26458,11 @@
       <c r="T272">
         <v>200.4375380680614</v>
       </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V272" t="inlineStr">
         <is>
           <t>N</t>
@@ -25199,6 +26554,11 @@
       <c r="T273">
         <v>168.6399394333555</v>
       </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V273" t="inlineStr">
         <is>
           <t>N</t>
@@ -25290,6 +26650,11 @@
       <c r="T274">
         <v>75.74255331909276</v>
       </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V274" t="inlineStr">
         <is>
           <t>N</t>
@@ -25381,6 +26746,11 @@
       <c r="T275">
         <v>75.69679406808837</v>
       </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V275" t="inlineStr">
         <is>
           <t>N</t>
@@ -25472,6 +26842,11 @@
       <c r="T276">
         <v>52.10595678784041</v>
       </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V276" t="inlineStr">
         <is>
           <t>N</t>
@@ -25563,6 +26938,11 @@
       <c r="T277">
         <v>50.25738240392701</v>
       </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V277" t="inlineStr">
         <is>
           <t>N</t>
@@ -25654,6 +27034,11 @@
       <c r="T278">
         <v>36.71687316189429</v>
       </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V278" t="inlineStr">
         <is>
           <t>N</t>
@@ -25745,6 +27130,11 @@
       <c r="T279">
         <v>52.7</v>
       </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V279" t="inlineStr">
         <is>
           <t>N</t>
@@ -25836,6 +27226,11 @@
       <c r="T280">
         <v>39.3</v>
       </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V280" t="inlineStr">
         <is>
           <t>N</t>
@@ -25927,6 +27322,11 @@
       <c r="T281">
         <v>20.6</v>
       </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V281" t="inlineStr">
         <is>
           <t>N</t>
@@ -26018,6 +27418,11 @@
       <c r="T282">
         <v>171.7</v>
       </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V282" t="inlineStr">
         <is>
           <t>N</t>
@@ -26109,6 +27514,11 @@
       <c r="T283">
         <v>7.2</v>
       </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V283" t="inlineStr">
         <is>
           <t>N</t>
@@ -26200,6 +27610,11 @@
       <c r="T284">
         <v>12.4</v>
       </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V284" t="inlineStr">
         <is>
           <t>N</t>
@@ -26291,6 +27706,11 @@
       <c r="T285">
         <v>1.1</v>
       </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V285" t="inlineStr">
         <is>
           <t>N</t>
@@ -26382,6 +27802,11 @@
       <c r="T286">
         <v>4.3</v>
       </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V286" t="inlineStr">
         <is>
           <t>N</t>
@@ -26473,6 +27898,11 @@
       <c r="T287">
         <v>48.59894298028645</v>
       </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V287" t="inlineStr">
         <is>
           <t>N</t>
@@ -26564,6 +27994,11 @@
       <c r="T288">
         <v>19.69142711055781</v>
       </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V288" t="inlineStr">
         <is>
           <t>N</t>
@@ -26655,6 +28090,11 @@
       <c r="T289">
         <v>22.43859155121744</v>
       </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V289" t="inlineStr">
         <is>
           <t>N</t>
@@ -26746,6 +28186,11 @@
       <c r="T290">
         <v>15.42653169146194</v>
       </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V290" t="inlineStr">
         <is>
           <t>N</t>
@@ -26837,6 +28282,11 @@
       <c r="T291">
         <v>14.02411971951093</v>
       </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V291" t="inlineStr">
         <is>
           <t>N</t>
@@ -26928,6 +28378,11 @@
       <c r="T292">
         <v>11.21929577560878</v>
       </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V292" t="inlineStr">
         <is>
           <t>N</t>
@@ -27019,6 +28474,11 @@
       <c r="T293">
         <v>2.804823943902148</v>
       </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V293" t="inlineStr">
         <is>
           <t>N</t>
@@ -27107,6 +28567,11 @@
       <c r="T294">
         <v>0.6618378066008526</v>
       </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V294" t="inlineStr">
         <is>
           <t>N</t>
@@ -27195,6 +28660,11 @@
       <c r="T295">
         <v>0.3328468227498289</v>
       </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V295" t="inlineStr">
         <is>
           <t>N</t>
@@ -27286,6 +28756,11 @@
       <c r="T296">
         <v>354.2350914294065</v>
       </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V296" t="inlineStr">
         <is>
           <t>N</t>
@@ -27377,6 +28852,11 @@
       <c r="T297">
         <v>7.914744968693753</v>
       </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V297" t="inlineStr">
         <is>
           <t>N</t>
@@ -27468,6 +28948,11 @@
       <c r="T298">
         <v>10.50809481000852</v>
       </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V298" t="inlineStr">
         <is>
           <t>N</t>
@@ -27559,6 +29044,11 @@
       <c r="T299">
         <v>6.961952367017918</v>
       </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V299" t="inlineStr">
         <is>
           <t>N</t>
@@ -27650,6 +29140,11 @@
       <c r="T300">
         <v>8.61577705534031</v>
       </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V300" t="inlineStr">
         <is>
           <t>N</t>
@@ -27741,6 +29236,11 @@
       <c r="T301">
         <v>4.082429475821466</v>
       </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V301" t="inlineStr">
         <is>
           <t>N</t>
@@ -27832,6 +29332,11 @@
       <c r="T302">
         <v>4.90961114320634</v>
       </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V302" t="inlineStr">
         <is>
           <t>N</t>
@@ -27923,6 +29428,11 @@
       <c r="T303">
         <v>39.55655871510241</v>
       </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V303" t="inlineStr">
         <is>
           <t>N</t>
@@ -28014,6 +29524,11 @@
       <c r="T304">
         <v>49.2333773075614</v>
       </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V304" t="inlineStr">
         <is>
           <t>N</t>
@@ -28105,6 +29620,11 @@
       <c r="T305">
         <v>40.1233398190055</v>
       </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V305" t="inlineStr">
         <is>
           <t>N</t>
@@ -28196,6 +29716,11 @@
       <c r="T306">
         <v>45.70573338621411</v>
       </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V306" t="inlineStr">
         <is>
           <t>N</t>
@@ -28287,6 +29812,11 @@
       <c r="T307">
         <v>33.91041136195044</v>
       </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V307" t="inlineStr">
         <is>
           <t>N</t>
@@ -28378,6 +29908,11 @@
       <c r="T308">
         <v>37.50079287759295</v>
       </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V308" t="inlineStr">
         <is>
           <t>N</t>
@@ -28469,6 +30004,11 @@
       <c r="T309">
         <v>36.28750658789514</v>
       </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V309" t="inlineStr">
         <is>
           <t>N</t>
@@ -28560,6 +30100,11 @@
       <c r="T310">
         <v>31.27048245048104</v>
       </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V310" t="inlineStr">
         <is>
           <t>N</t>
@@ -28651,6 +30196,11 @@
       <c r="T311">
         <v>32.99454800587517</v>
       </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V311" t="inlineStr">
         <is>
           <t>N</t>
@@ -28742,6 +30292,11 @@
       <c r="T312">
         <v>28.39776936046893</v>
       </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V312" t="inlineStr">
         <is>
           <t>N</t>
@@ -28833,6 +30388,11 @@
       <c r="T313">
         <v>140.9934614603149</v>
       </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V313" t="inlineStr">
         <is>
           <t>N</t>
@@ -28924,6 +30484,11 @@
       <c r="T314">
         <v>85.42655429116732</v>
       </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V314" t="inlineStr">
         <is>
           <t>N</t>
@@ -29015,6 +30580,11 @@
       <c r="T315">
         <v>81.9990830825797</v>
       </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V315" t="inlineStr">
         <is>
           <t>N</t>
@@ -29106,6 +30676,11 @@
       <c r="T316">
         <v>78.06930283962544</v>
       </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V316" t="inlineStr">
         <is>
           <t>N</t>
@@ -29197,6 +30772,11 @@
       <c r="T317">
         <v>62.53315269862605</v>
       </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V317" t="inlineStr">
         <is>
           <t>N</t>
@@ -29288,6 +30868,11 @@
       <c r="T318">
         <v>65.75564737272607</v>
       </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V318" t="inlineStr">
         <is>
           <t>N</t>
@@ -29379,6 +30964,11 @@
       <c r="T319">
         <v>41.34272755649271</v>
       </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V319" t="inlineStr">
         <is>
           <t>N</t>
@@ -29470,6 +31060,11 @@
       <c r="T320">
         <v>37.93417689923331</v>
       </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V320" t="inlineStr">
         <is>
           <t>N</t>
@@ -29561,6 +31156,11 @@
       <c r="T321">
         <v>31.29178117109997</v>
       </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V321" t="inlineStr">
         <is>
           <t>N</t>
@@ -29652,6 +31252,11 @@
       <c r="T322">
         <v>23.33407740780396</v>
       </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V322" t="inlineStr">
         <is>
           <t>N</t>
@@ -29743,6 +31348,11 @@
       <c r="T323">
         <v>1.7</v>
       </c>
+      <c r="U323" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V323" t="inlineStr">
         <is>
           <t>N</t>
@@ -29834,6 +31444,11 @@
       <c r="T324">
         <v>1.4</v>
       </c>
+      <c r="U324" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V324" t="inlineStr">
         <is>
           <t>N</t>
@@ -29925,6 +31540,11 @@
       <c r="T325">
         <v>1.7</v>
       </c>
+      <c r="U325" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V325" t="inlineStr">
         <is>
           <t>N</t>
@@ -30016,6 +31636,11 @@
       <c r="T326">
         <v>1.4</v>
       </c>
+      <c r="U326" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V326" t="inlineStr">
         <is>
           <t>N</t>
@@ -30107,6 +31732,11 @@
       <c r="T327">
         <v>5.544253040554983</v>
       </c>
+      <c r="U327" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V327" t="inlineStr">
         <is>
           <t>N</t>
@@ -30198,6 +31828,11 @@
       <c r="T328">
         <v>3.161460850737162</v>
       </c>
+      <c r="U328" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V328" t="inlineStr">
         <is>
           <t>N</t>
@@ -30289,6 +31924,11 @@
       <c r="T329">
         <v>56.77725609487192</v>
       </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V329" t="inlineStr">
         <is>
           <t>N</t>
@@ -30380,6 +32020,11 @@
       <c r="T330">
         <v>58.0826509010516</v>
       </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V330" t="inlineStr">
         <is>
           <t>N</t>
@@ -30471,6 +32116,11 @@
       <c r="T331">
         <v>13.89855741813102</v>
       </c>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V331" t="inlineStr">
         <is>
           <t>N</t>
@@ -30562,6 +32212,11 @@
       <c r="T332">
         <v>9.265704945420678</v>
       </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V332" t="inlineStr">
         <is>
           <t>N</t>
@@ -30653,6 +32308,11 @@
       <c r="T333">
         <v>54.59273899660771</v>
       </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V333" t="inlineStr">
         <is>
           <t>N</t>
@@ -30744,6 +32404,11 @@
       <c r="T334">
         <v>47.55186017710529</v>
       </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V334" t="inlineStr">
         <is>
           <t>N</t>
@@ -30835,6 +32500,11 @@
       <c r="T335">
         <v>44.01209849074822</v>
       </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V335" t="inlineStr">
         <is>
           <t>N</t>
@@ -30926,6 +32596,11 @@
       <c r="T336">
         <v>33.90000000000001</v>
       </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V336" t="inlineStr">
         <is>
           <t>N</t>
@@ -31017,6 +32692,11 @@
       <c r="T337">
         <v>145.9348528903757</v>
       </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V337" t="inlineStr">
         <is>
           <t>N</t>
@@ -31108,6 +32788,11 @@
       <c r="T338">
         <v>62.54350838158958</v>
       </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V338" t="inlineStr">
         <is>
           <t>N</t>
@@ -31199,6 +32884,11 @@
       <c r="T339">
         <v>74.12442175512014</v>
       </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V339" t="inlineStr">
         <is>
           <t>N</t>
@@ -31290,6 +32980,11 @@
       <c r="T340">
         <v>47.55186017710529</v>
       </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V340" t="inlineStr">
         <is>
           <t>N</t>
@@ -31381,6 +33076,11 @@
       <c r="T341">
         <v>46.49927292660171</v>
       </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V341" t="inlineStr">
         <is>
           <t>N</t>
@@ -31472,6 +33172,11 @@
       <c r="T342">
         <v>46.49927292660119</v>
       </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V342" t="inlineStr">
         <is>
           <t>N</t>
@@ -31563,6 +33268,11 @@
       <c r="T343">
         <v>32.99144395369249</v>
       </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V343" t="inlineStr">
         <is>
           <t>N</t>
@@ -31654,6 +33364,11 @@
       <c r="T344">
         <v>31.05077077994615</v>
       </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V344" t="inlineStr">
         <is>
           <t>N</t>
@@ -31742,6 +33457,11 @@
       <c r="T345">
         <v>1.926815069501167</v>
       </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V345" t="inlineStr">
         <is>
           <t>N</t>
@@ -31830,6 +33550,11 @@
       <c r="T346">
         <v>2.504729660788834</v>
       </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V346" t="inlineStr">
         <is>
           <t>N</t>
@@ -31918,6 +33643,11 @@
       <c r="T347">
         <v>17.61525197681645</v>
       </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V347" t="inlineStr">
         <is>
           <t>N</t>
@@ -32006,6 +33736,11 @@
       <c r="T348">
         <v>17.05190605181726</v>
       </c>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V348" t="inlineStr">
         <is>
           <t>N</t>
@@ -39744,6 +41479,11 @@
       <c r="R429">
         <v>144</v>
       </c>
+      <c r="U429" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V429" t="inlineStr">
         <is>
           <t>N</t>
@@ -39829,6 +41569,11 @@
       <c r="R430">
         <v>343</v>
       </c>
+      <c r="U430" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V430" t="inlineStr">
         <is>
           <t>N</t>
@@ -39914,6 +41659,11 @@
       <c r="R431">
         <v>343</v>
       </c>
+      <c r="U431" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V431" t="inlineStr">
         <is>
           <t>N</t>
@@ -39999,6 +41749,11 @@
       <c r="R432">
         <v>343</v>
       </c>
+      <c r="U432" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V432" t="inlineStr">
         <is>
           <t>N</t>
@@ -40084,6 +41839,11 @@
       <c r="R433">
         <v>1000</v>
       </c>
+      <c r="U433" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V433" t="inlineStr">
         <is>
           <t>N</t>
@@ -40169,6 +41929,11 @@
       <c r="R434">
         <v>1000</v>
       </c>
+      <c r="U434" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V434" t="inlineStr">
         <is>
           <t>N</t>
@@ -40254,6 +42019,11 @@
       <c r="R435">
         <v>343</v>
       </c>
+      <c r="U435" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V435" t="inlineStr">
         <is>
           <t>N</t>
@@ -40339,6 +42109,11 @@
       <c r="R436">
         <v>343</v>
       </c>
+      <c r="U436" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V436" t="inlineStr">
         <is>
           <t>N</t>
@@ -40424,6 +42199,11 @@
       <c r="R437">
         <v>343</v>
       </c>
+      <c r="U437" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V437" t="inlineStr">
         <is>
           <t>N</t>
@@ -40509,6 +42289,11 @@
       <c r="R438">
         <v>343</v>
       </c>
+      <c r="U438" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V438" t="inlineStr">
         <is>
           <t>N</t>
@@ -40594,6 +42379,11 @@
       <c r="R439">
         <v>343</v>
       </c>
+      <c r="U439" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V439" t="inlineStr">
         <is>
           <t>N</t>
@@ -40679,6 +42469,11 @@
       <c r="R440">
         <v>343</v>
       </c>
+      <c r="U440" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V440" t="inlineStr">
         <is>
           <t>N</t>
@@ -40764,6 +42559,11 @@
       <c r="R441">
         <v>343</v>
       </c>
+      <c r="U441" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V441" t="inlineStr">
         <is>
           <t>N</t>
@@ -40849,6 +42649,11 @@
       <c r="R442">
         <v>500</v>
       </c>
+      <c r="U442" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V442" t="inlineStr">
         <is>
           <t>N</t>
@@ -40934,6 +42739,11 @@
       <c r="R443">
         <v>500</v>
       </c>
+      <c r="U443" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V443" t="inlineStr">
         <is>
           <t>N</t>
@@ -41019,6 +42829,11 @@
       <c r="R444">
         <v>500</v>
       </c>
+      <c r="U444" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V444" t="inlineStr">
         <is>
           <t>N</t>
@@ -41104,6 +42919,11 @@
       <c r="R445">
         <v>500</v>
       </c>
+      <c r="U445" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V445" t="inlineStr">
         <is>
           <t>N</t>
@@ -41189,6 +43009,11 @@
       <c r="R446">
         <v>500</v>
       </c>
+      <c r="U446" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V446" t="inlineStr">
         <is>
           <t>N</t>
@@ -41274,6 +43099,11 @@
       <c r="R447">
         <v>500</v>
       </c>
+      <c r="U447" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V447" t="inlineStr">
         <is>
           <t>N</t>
@@ -41359,6 +43189,11 @@
       <c r="R448">
         <v>461</v>
       </c>
+      <c r="U448" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V448" t="inlineStr">
         <is>
           <t>N</t>
@@ -41444,6 +43279,11 @@
       <c r="R449">
         <v>414</v>
       </c>
+      <c r="U449" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V449" t="inlineStr">
         <is>
           <t>N</t>
@@ -41529,6 +43369,11 @@
       <c r="R450">
         <v>236</v>
       </c>
+      <c r="U450" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V450" t="inlineStr">
         <is>
           <t>N</t>
@@ -41614,6 +43459,11 @@
       <c r="R451">
         <v>274</v>
       </c>
+      <c r="U451" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V451" t="inlineStr">
         <is>
           <t>N</t>
@@ -41699,6 +43549,11 @@
       <c r="R452">
         <v>48</v>
       </c>
+      <c r="U452" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V452" t="inlineStr">
         <is>
           <t>N</t>
@@ -41784,6 +43639,11 @@
       <c r="R453">
         <v>48</v>
       </c>
+      <c r="U453" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V453" t="inlineStr">
         <is>
           <t>N</t>
@@ -41869,6 +43729,11 @@
       <c r="R454">
         <v>48</v>
       </c>
+      <c r="U454" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V454" t="inlineStr">
         <is>
           <t>N</t>
@@ -41954,6 +43819,11 @@
       <c r="R455">
         <v>9</v>
       </c>
+      <c r="U455" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V455" t="inlineStr">
         <is>
           <t>N</t>
@@ -42039,6 +43909,11 @@
       <c r="R456">
         <v>15</v>
       </c>
+      <c r="U456" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V456" t="inlineStr">
         <is>
           <t>N</t>
@@ -42124,6 +43999,11 @@
       <c r="R457">
         <v>13</v>
       </c>
+      <c r="U457" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V457" t="inlineStr">
         <is>
           <t>N</t>
@@ -42209,6 +44089,11 @@
       <c r="R458">
         <v>9</v>
       </c>
+      <c r="U458" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V458" t="inlineStr">
         <is>
           <t>N</t>
@@ -42294,6 +44179,11 @@
       <c r="R459">
         <v>14</v>
       </c>
+      <c r="U459" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V459" t="inlineStr">
         <is>
           <t>N</t>
@@ -42379,6 +44269,11 @@
       <c r="R460">
         <v>18</v>
       </c>
+      <c r="U460" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V460" t="inlineStr">
         <is>
           <t>N</t>
@@ -42464,6 +44359,11 @@
       <c r="R461">
         <v>48</v>
       </c>
+      <c r="U461" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V461" t="inlineStr">
         <is>
           <t>N</t>
@@ -42549,6 +44449,11 @@
       <c r="R462">
         <v>48</v>
       </c>
+      <c r="U462" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V462" t="inlineStr">
         <is>
           <t>N</t>
@@ -42634,6 +44539,11 @@
       <c r="R463">
         <v>48</v>
       </c>
+      <c r="U463" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V463" t="inlineStr">
         <is>
           <t>N</t>
@@ -42719,6 +44629,11 @@
       <c r="R464">
         <v>18</v>
       </c>
+      <c r="U464" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V464" t="inlineStr">
         <is>
           <t>N</t>
@@ -42804,6 +44719,11 @@
       <c r="R465">
         <v>12</v>
       </c>
+      <c r="U465" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V465" t="inlineStr">
         <is>
           <t>N</t>
@@ -42889,6 +44809,11 @@
       <c r="R466">
         <v>9</v>
       </c>
+      <c r="U466" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V466" t="inlineStr">
         <is>
           <t>N</t>
@@ -42974,6 +44899,11 @@
       <c r="R467">
         <v>15</v>
       </c>
+      <c r="U467" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V467" t="inlineStr">
         <is>
           <t>N</t>
@@ -43059,6 +44989,11 @@
       <c r="R468">
         <v>9</v>
       </c>
+      <c r="U468" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V468" t="inlineStr">
         <is>
           <t>N</t>
@@ -43144,6 +45079,11 @@
       <c r="R469">
         <v>15</v>
       </c>
+      <c r="U469" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V469" t="inlineStr">
         <is>
           <t>N</t>
@@ -43229,6 +45169,11 @@
       <c r="R470">
         <v>48</v>
       </c>
+      <c r="U470" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V470" t="inlineStr">
         <is>
           <t>N</t>
@@ -43314,6 +45259,11 @@
       <c r="R471">
         <v>48</v>
       </c>
+      <c r="U471" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V471" t="inlineStr">
         <is>
           <t>N</t>
@@ -43399,6 +45349,11 @@
       <c r="R472">
         <v>48</v>
       </c>
+      <c r="U472" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V472" t="inlineStr">
         <is>
           <t>N</t>
@@ -43484,6 +45439,11 @@
       <c r="R473">
         <v>24</v>
       </c>
+      <c r="U473" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V473" t="inlineStr">
         <is>
           <t>N</t>
@@ -43569,6 +45529,11 @@
       <c r="R474">
         <v>24</v>
       </c>
+      <c r="U474" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V474" t="inlineStr">
         <is>
           <t>N</t>
@@ -43654,6 +45619,11 @@
       <c r="R475">
         <v>24</v>
       </c>
+      <c r="U475" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V475" t="inlineStr">
         <is>
           <t>N</t>
@@ -43739,6 +45709,11 @@
       <c r="R476">
         <v>24</v>
       </c>
+      <c r="U476" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V476" t="inlineStr">
         <is>
           <t>N</t>
@@ -43824,6 +45799,11 @@
       <c r="R477">
         <v>24</v>
       </c>
+      <c r="U477" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V477" t="inlineStr">
         <is>
           <t>N</t>
@@ -43909,6 +45889,11 @@
       <c r="R478">
         <v>24</v>
       </c>
+      <c r="U478" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V478" t="inlineStr">
         <is>
           <t>N</t>
@@ -43994,6 +45979,11 @@
       <c r="R479">
         <v>24</v>
       </c>
+      <c r="U479" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V479" t="inlineStr">
         <is>
           <t>N</t>
@@ -44079,6 +46069,11 @@
       <c r="R480">
         <v>24</v>
       </c>
+      <c r="U480" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V480" t="inlineStr">
         <is>
           <t>N</t>
@@ -44164,6 +46159,11 @@
       <c r="R481">
         <v>24</v>
       </c>
+      <c r="U481" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V481" t="inlineStr">
         <is>
           <t>N</t>
@@ -44249,6 +46249,11 @@
       <c r="R482">
         <v>24</v>
       </c>
+      <c r="U482" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V482" t="inlineStr">
         <is>
           <t>N</t>
@@ -44334,6 +46339,11 @@
       <c r="R483">
         <v>24</v>
       </c>
+      <c r="U483" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V483" t="inlineStr">
         <is>
           <t>N</t>
@@ -44419,6 +46429,11 @@
       <c r="R484">
         <v>24</v>
       </c>
+      <c r="U484" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V484" t="inlineStr">
         <is>
           <t>N</t>
@@ -44504,6 +46519,11 @@
       <c r="R485">
         <v>120</v>
       </c>
+      <c r="U485" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V485" t="inlineStr">
         <is>
           <t>N</t>
@@ -44589,6 +46609,11 @@
       <c r="R486">
         <v>160</v>
       </c>
+      <c r="U486" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V486" t="inlineStr">
         <is>
           <t>N</t>
@@ -44674,6 +46699,11 @@
       <c r="R487">
         <v>160</v>
       </c>
+      <c r="U487" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V487" t="inlineStr">
         <is>
           <t>N</t>
@@ -44759,6 +46789,11 @@
       <c r="R488">
         <v>160</v>
       </c>
+      <c r="U488" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V488" t="inlineStr">
         <is>
           <t>N</t>
@@ -44844,6 +46879,11 @@
       <c r="R489">
         <v>160</v>
       </c>
+      <c r="U489" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V489" t="inlineStr">
         <is>
           <t>N</t>
@@ -44929,6 +46969,11 @@
       <c r="R490">
         <v>160</v>
       </c>
+      <c r="U490" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V490" t="inlineStr">
         <is>
           <t>N</t>
@@ -45014,6 +47059,11 @@
       <c r="R491">
         <v>160</v>
       </c>
+      <c r="U491" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V491" t="inlineStr">
         <is>
           <t>N</t>
@@ -45099,6 +47149,11 @@
       <c r="R492">
         <v>160</v>
       </c>
+      <c r="U492" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V492" t="inlineStr">
         <is>
           <t>N</t>
@@ -45184,6 +47239,11 @@
       <c r="R493">
         <v>160</v>
       </c>
+      <c r="U493" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V493" t="inlineStr">
         <is>
           <t>N</t>
@@ -45269,6 +47329,11 @@
       <c r="R494">
         <v>160</v>
       </c>
+      <c r="U494" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V494" t="inlineStr">
         <is>
           <t>N</t>
@@ -45354,6 +47419,11 @@
       <c r="R495">
         <v>160</v>
       </c>
+      <c r="U495" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V495" t="inlineStr">
         <is>
           <t>N</t>
@@ -45439,6 +47509,11 @@
       <c r="R496">
         <v>160</v>
       </c>
+      <c r="U496" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V496" t="inlineStr">
         <is>
           <t>N</t>
@@ -45524,6 +47599,11 @@
       <c r="R497">
         <v>90</v>
       </c>
+      <c r="U497" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V497" t="inlineStr">
         <is>
           <t>N</t>
@@ -45609,6 +47689,11 @@
       <c r="R498">
         <v>100</v>
       </c>
+      <c r="U498" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V498" t="inlineStr">
         <is>
           <t>N</t>
@@ -45694,6 +47779,11 @@
       <c r="R499">
         <v>100</v>
       </c>
+      <c r="U499" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V499" t="inlineStr">
         <is>
           <t>N</t>
@@ -45779,6 +47869,11 @@
       <c r="R500">
         <v>100</v>
       </c>
+      <c r="U500" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V500" t="inlineStr">
         <is>
           <t>N</t>
@@ -45864,6 +47959,11 @@
       <c r="R501">
         <v>100</v>
       </c>
+      <c r="U501" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V501" t="inlineStr">
         <is>
           <t>N</t>
@@ -45949,6 +48049,11 @@
       <c r="R502">
         <v>100</v>
       </c>
+      <c r="U502" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V502" t="inlineStr">
         <is>
           <t>N</t>
@@ -46034,6 +48139,11 @@
       <c r="R503">
         <v>100</v>
       </c>
+      <c r="U503" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V503" t="inlineStr">
         <is>
           <t>N</t>
@@ -46119,6 +48229,11 @@
       <c r="R504">
         <v>100</v>
       </c>
+      <c r="U504" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V504" t="inlineStr">
         <is>
           <t>N</t>
@@ -46204,6 +48319,11 @@
       <c r="R505">
         <v>100</v>
       </c>
+      <c r="U505" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V505" t="inlineStr">
         <is>
           <t>N</t>
@@ -46289,6 +48409,11 @@
       <c r="R506">
         <v>100</v>
       </c>
+      <c r="U506" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V506" t="inlineStr">
         <is>
           <t>N</t>
@@ -46374,6 +48499,11 @@
       <c r="R507">
         <v>100</v>
       </c>
+      <c r="U507" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V507" t="inlineStr">
         <is>
           <t>N</t>
@@ -46459,6 +48589,11 @@
       <c r="R508">
         <v>100</v>
       </c>
+      <c r="U508" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V508" t="inlineStr">
         <is>
           <t>N</t>
@@ -46544,6 +48679,11 @@
       <c r="R509">
         <v>100</v>
       </c>
+      <c r="U509" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V509" t="inlineStr">
         <is>
           <t>N</t>
@@ -46629,6 +48769,11 @@
       <c r="R510">
         <v>303</v>
       </c>
+      <c r="U510" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V510" t="inlineStr">
         <is>
           <t>N</t>
@@ -46714,6 +48859,11 @@
       <c r="R511">
         <v>302</v>
       </c>
+      <c r="U511" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V511" t="inlineStr">
         <is>
           <t>N</t>
@@ -46799,6 +48949,11 @@
       <c r="R512">
         <v>303</v>
       </c>
+      <c r="U512" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V512" t="inlineStr">
         <is>
           <t>N</t>
@@ -46884,6 +49039,11 @@
       <c r="R513">
         <v>302</v>
       </c>
+      <c r="U513" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V513" t="inlineStr">
         <is>
           <t>N</t>
@@ -46969,6 +49129,11 @@
       <c r="R514">
         <v>303</v>
       </c>
+      <c r="U514" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V514" t="inlineStr">
         <is>
           <t>N</t>
@@ -47054,6 +49219,11 @@
       <c r="R515">
         <v>323</v>
       </c>
+      <c r="U515" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V515" t="inlineStr">
         <is>
           <t>N</t>
@@ -47139,6 +49309,11 @@
       <c r="R516">
         <v>302</v>
       </c>
+      <c r="U516" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V516" t="inlineStr">
         <is>
           <t>N</t>
@@ -47224,6 +49399,11 @@
       <c r="R517">
         <v>318</v>
       </c>
+      <c r="U517" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V517" t="inlineStr">
         <is>
           <t>N</t>
@@ -47309,6 +49489,11 @@
       <c r="R518">
         <v>323</v>
       </c>
+      <c r="U518" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V518" t="inlineStr">
         <is>
           <t>N</t>
@@ -47394,6 +49579,11 @@
       <c r="R519">
         <v>318</v>
       </c>
+      <c r="U519" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V519" t="inlineStr">
         <is>
           <t>N</t>
@@ -47479,6 +49669,11 @@
       <c r="R520">
         <v>18</v>
       </c>
+      <c r="U520" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V520" t="inlineStr">
         <is>
           <t>N</t>
@@ -47564,6 +49759,11 @@
       <c r="R521">
         <v>18</v>
       </c>
+      <c r="U521" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V521" t="inlineStr">
         <is>
           <t>N</t>
@@ -47649,6 +49849,11 @@
       <c r="R522">
         <v>18</v>
       </c>
+      <c r="U522" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V522" t="inlineStr">
         <is>
           <t>N</t>
@@ -47734,6 +49939,11 @@
       <c r="R523">
         <v>18</v>
       </c>
+      <c r="U523" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V523" t="inlineStr">
         <is>
           <t>N</t>
@@ -47819,6 +50029,11 @@
       <c r="R524">
         <v>18</v>
       </c>
+      <c r="U524" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V524" t="inlineStr">
         <is>
           <t>N</t>
@@ -47904,6 +50119,11 @@
       <c r="R525">
         <v>18</v>
       </c>
+      <c r="U525" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V525" t="inlineStr">
         <is>
           <t>N</t>
@@ -47989,6 +50209,11 @@
       <c r="R526">
         <v>113</v>
       </c>
+      <c r="U526" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V526" t="inlineStr">
         <is>
           <t>N</t>
@@ -48074,6 +50299,11 @@
       <c r="R527">
         <v>150</v>
       </c>
+      <c r="U527" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V527" t="inlineStr">
         <is>
           <t>N</t>
@@ -48159,6 +50389,11 @@
       <c r="R528">
         <v>148</v>
       </c>
+      <c r="U528" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V528" t="inlineStr">
         <is>
           <t>N</t>
@@ -48244,6 +50479,11 @@
       <c r="R529">
         <v>150</v>
       </c>
+      <c r="U529" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V529" t="inlineStr">
         <is>
           <t>N</t>
@@ -48329,6 +50569,11 @@
       <c r="R530">
         <v>148</v>
       </c>
+      <c r="U530" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V530" t="inlineStr">
         <is>
           <t>N</t>
@@ -48414,6 +50659,11 @@
       <c r="R531">
         <v>150</v>
       </c>
+      <c r="U531" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V531" t="inlineStr">
         <is>
           <t>N</t>
@@ -48499,6 +50749,11 @@
       <c r="R532">
         <v>148</v>
       </c>
+      <c r="U532" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V532" t="inlineStr">
         <is>
           <t>N</t>
@@ -48584,6 +50839,11 @@
       <c r="R533">
         <v>14</v>
       </c>
+      <c r="U533" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V533" t="inlineStr">
         <is>
           <t>N</t>
@@ -48669,6 +50929,11 @@
       <c r="R534">
         <v>14</v>
       </c>
+      <c r="U534" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V534" t="inlineStr">
         <is>
           <t>N</t>
@@ -48754,6 +51019,11 @@
       <c r="R535">
         <v>14</v>
       </c>
+      <c r="U535" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V535" t="inlineStr">
         <is>
           <t>N</t>
@@ -48839,6 +51109,11 @@
       <c r="R536">
         <v>100</v>
       </c>
+      <c r="U536" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V536" t="inlineStr">
         <is>
           <t>N</t>
@@ -48924,6 +51199,11 @@
       <c r="R537">
         <v>100</v>
       </c>
+      <c r="U537" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V537" t="inlineStr">
         <is>
           <t>N</t>
@@ -49006,6 +51286,11 @@
       <c r="R538">
         <v>80</v>
       </c>
+      <c r="U538" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V538" t="inlineStr">
         <is>
           <t>N</t>
@@ -49087,6 +51372,11 @@
       </c>
       <c r="R539">
         <v>80</v>
+      </c>
+      <c r="U539" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="V539" t="inlineStr">
         <is>
